--- a/outputs/MIAMI2.xlsx
+++ b/outputs/MIAMI2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that finding Assignment 7 is a necessary step toward submitting it.</t>
+Why: The page clearly shows "Assignment 7" on the right side under "Coming Up," which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and the information is easily accessible without requiring Abi to navigate through unfamiliar or complex processes.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her tasks and her comprehensive information processing style. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to Assignment 7.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This makes it straightforward for Abi to identify and click on it as the next step toward finding Assignment 7. The page provides clear and direct information, aligning with Abi's comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and an option to load the assignment in a new window. However, the page layout is cluttered and not very user-friendly. The instructions are not immediately clear, and the presence of multiple links and options might overwhelm Abi. Given her comprehensive information processing style, she might find it difficult to determine if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to follow the external link or load the assignment in a new window without clear guidance.</t>
+Why: While Abi will know she is on the Assignment 7 page, the page is cluttered and lacks clear instructions on what to do next. The presence of multiple links and the instruction to load the assignment in a new browser window might confuse Abi, given her low computer self-efficacy. Additionally, the page does not provide comprehensive information in a straightforward manner, which could overwhelm Abi and hinder her progress toward submitting the assignment.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a link to an external site (GitHub) without much context or guidance on what to expect after clicking the link. Given Abi's comprehensive information processing style, she might find the lack of detailed instructions confusing. Additionally, her low computer self-efficacy might make her hesitant to click on an external link without clear information on what it will lead to. Abi's preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page contains a link to an external site (GitHub) without providing clear instructions on what to expect or what to do once there. Given Abi's low computer self-efficacy, she might be hesitant to click on a link that leads to an unfamiliar site without more context. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance could make her unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's comprehensive information processing style, she might find the lack of detailed guidance confusing. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress toward her goal. The page does not provide all the information she needs to confidently move forward with submitting Assignment 7.</t>
+Why: While the page indicates that Abi has accepted the assignment and provides a link to the assignment repository, it does not offer clear instructions on what to do next. The message "You're ready to go!" is encouraging, but it lacks detailed guidance on the subsequent steps Abi needs to take to submit the assignment. Given Abi's preference for comprehensive information and her low computer self-efficacy, she might feel uncertain about how to proceed from this point, making it difficult for her to know if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy might make her hesitant to navigate to a different platform without clear guidance. The page does not provide enough information for Abi to think of going to Gradescope as a step toward submitting Assignment 7.</t>
+Why: The page does not provide any direct indication or instructions that Abi needs to go to Gradescope to submit Assignment 7. Given Abi's comprehensive information processing style, she would need clear and explicit guidance to understand that going to Gradescope is a necessary step. Additionally, her low computer self-efficacy means she is less likely to make assumptions or take actions without clear instructions. Therefore, Abi is unlikely to think of going to Gradescope as a step toward submitting Assignment 7 based on the information available on this page.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is the correct step toward submitting her assignment. Additionally, her low computer self-efficacy might make her hesitant to click the link without knowing exactly what it will do. The page does not provide enough information for Abi to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide any indication that clicking on the "Assignment 7" link will lead Abi to Gradescope for submission. Given Abi's low computer self-efficacy, she might be hesitant to click on a link without knowing exactly where it will take her. Additionally, Abi prefers clear, step-by-step instructions, which are not provided here. Without explicit guidance, Abi may not feel confident that clicking the link is the correct action to take toward submitting her assignment.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress toward her goal. The page does not provide all the information she needs to confidently move forward with submitting Assignment 7 on Gradescope.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about the assignment but does not clearly indicate that she needs to go to Gradescope to submit it. The page includes a link to GitHub and instructions to load the assignment in a new browser window, which might confuse Abi. Given her comprehensive information processing style, Abi would need explicit instructions to understand that she needs to go to Gradescope for submission. Additionally, her low computer self-efficacy means she might feel uncertain about what to do next without clear guidance, making it difficult for her to know if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not explicitly mention Gradescope or provide clear instructions on what will happen after clicking the button. Given Abi's comprehensive information processing style, she would need more detailed guidance to understand that this action will lead her to Gradescope for submission. Additionally, her low computer self-efficacy might make her hesitant to click the button without knowing exactly what it will do. Abi's preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page instructs Abi to "Load Assignment 7 in a new window," but it does not provide clear information on what will happen next or how this action will help her submit the assignment. Given Abi's low computer self-efficacy, she might be hesitant to click on a button without understanding its purpose fully. Additionally, Abi prefers clear, step-by-step instructions, which are not provided here. The lack of detailed guidance and context might make Abi unsure about taking this action and whether it will help her achieve her goal of submitting the assignment.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page is well-organized and clearly shows the assignment details, including the due date and submission status. Given Abi's motivation to complete her tasks and her comprehensive information processing style, she will recognize that she is on the right platform (Gradescope) and making progress toward submitting her assignment. The page provides all the necessary information for her to proceed with the submission.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists "Project 7" along with its due date and submission status. This page provides clear information that aligns with her goal of submitting Assignment 7. The presence of the assignment name, due date, and submission status will help Abi understand that she is on the right track and making progress toward her goal. The information is presented in a straightforward manner, which aligns with Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
